--- a/biology/Botanique/Constantin_von_Ettingshausen/Constantin_von_Ettingshausen.xlsx
+++ b/biology/Botanique/Constantin_von_Ettingshausen/Constantin_von_Ettingshausen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le baron Constantin von Ettingshausen est un botaniste et un paléontologue autrichien, né le 16 juin 1826 à Vienne et mort le 1er février 1897 à Graz.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il obtient son titre de docteur en médecine à Vienne et devient, en 1854, professeur de botanique et d’histoire naturelle à l’École de médecine de l’académie militaire de la ville.
 En 1871, il obtient un poste de professeur de botanique à Graz, fonction qu’il conserve presque jusqu’à sa mort. Ses travaux portent principalement sur la flore du Tertiaire d’Europe et des flores fossiles d’Australie et de Nouvelle-Zélande.
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(de) Physiographie der MedicinalPflanzen (1862).
 (de) Die Farnkruter der Jetztwelt zur Untersuchung and Bestimmung der in den Formationen der Erdrinde eingeschiossenen Uberreste von vorweltlichen Arten dieser Ordnung nach dem Flchen-Skelet bearbeitet (1865).
